--- a/Assignments/List_of_Models.xlsx
+++ b/Assignments/List_of_Models.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Ackerman\Desktop\Spring 2023\SoDA 496\SoDA496Project\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17614E-EFA6-4FAA-94C2-A4EE35538A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA9B2D1-6A6C-483A-A529-26287E9CCA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>Train Data from:</t>
-  </si>
-  <si>
-    <t>Languages Trained in:</t>
-  </si>
-  <si>
     <t>bert-base-uncased</t>
   </si>
   <si>
@@ -102,9 +97,6 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>Primary Uses:</t>
-  </si>
-  <si>
     <t>Cased model, so results might not truly be accurate, this was the only multilingual model of distilbert available</t>
   </si>
   <si>
@@ -118,13 +110,166 @@
   </si>
   <si>
     <t>https://paperswithcode.com/paper/xlm-e-cross-lingual-language-model-pre, https://github.com/microsoft/unilm/tree/master/infoxlm</t>
+  </si>
+  <si>
+    <t>MoritzLaurer/mDeBERTa-v3-base-mnli-xnli</t>
+  </si>
+  <si>
+    <t>distilbert-base-cased</t>
+  </si>
+  <si>
+    <t>check electra, deberta, bart, xlnet, maybe T5</t>
+  </si>
+  <si>
+    <t>Train Data from: One-hot encode</t>
+  </si>
+  <si>
+    <t>Make sure to cite</t>
+  </si>
+  <si>
+    <t>look at gpt/gpt2 if there aren't enough models</t>
+  </si>
+  <si>
+    <t>Primary Uses: One-hot encode (training procedure) MLM, NSP, Next token prediction, Electra style training, finetuned (how ever many columns you need, GLUE, SQuAd, ANLI, XNLI, etc)</t>
+  </si>
+  <si>
+    <t>Languages Trained in: one-hot encode (english, multi, specific languages if there's only one or a few other than english)</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/MoritzLaurer/mDeBERTa-v3-base-mnli-xnli</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/distilbert-base-cased</t>
+  </si>
+  <si>
+    <t>Need columns on model arcitechture: How many parameters in the paper, how many layers in the model, gpt is a decoder model while bert is an encoder model, was model finetuned?</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>XNLI</t>
+  </si>
+  <si>
+    <t>SQuAD</t>
+  </si>
+  <si>
+    <t>GLUE</t>
+  </si>
+  <si>
+    <t>SuperGLUE</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>CC100</t>
+  </si>
+  <si>
+    <t>MNLI</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Number_of_Languages</t>
+  </si>
+  <si>
+    <t>Ted2020</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/MoritzLaurer/mDeBERTa-v3-base-mnli-xnli,  Laurer, Moritz, Wouter van Atteveldt, Andreu Salleras Casas, and Kasper Welbers. 2022. ‘Less Annotating, More Classifying – Addressing the Data Scarcity Issue of Supervised Machine Learning with Deep Transfer Learning and BERT - NLI’. Preprint, June. Open Science Framework. https://osf.io/74b8k.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2004.09813</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1907.12412</t>
+  </si>
+  <si>
+    <t>Masked_Language_Modeling</t>
+  </si>
+  <si>
+    <t>Next_Sentence_Prediction</t>
+  </si>
+  <si>
+    <t>Sequence_Classification</t>
+  </si>
+  <si>
+    <t>Token_Classification</t>
+  </si>
+  <si>
+    <t>Question_Answering</t>
+  </si>
+  <si>
+    <t>Natural_Language_Inference</t>
+  </si>
+  <si>
+    <t>ELECTRA_Tasks</t>
+  </si>
+  <si>
+    <t>Finetuned</t>
+  </si>
+  <si>
+    <t>Citation</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Bookcorpus</t>
+  </si>
+  <si>
+    <t>Encyclopedia</t>
+  </si>
+  <si>
+    <t>XQuAD</t>
+  </si>
+  <si>
+    <t>mDeBERTa-v3-base-mnli-xnli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multilingual-MiniLMv2-L6-mnli-xnli </t>
+  </si>
+  <si>
+    <t>Distilled from XLM-RoBERTa-Large</t>
+  </si>
+  <si>
+    <t>Laurer, Moritz, Wouter van Atteveldt, Andreu Salleras Casas, and Kasper Welbers. 2022. ‘Less Annotating, More Classifying – Addressing the Data Scarcity Issue of Supervised Machine Learning with Deep Transfer Learning and BERT - NLI’. Preprint, June. Open Science Framework. https://osf.io/74b8k.</t>
+  </si>
+  <si>
+    <t>Trained on 104 languages with the largest Wiki databases</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.02116.pdf</t>
+  </si>
+  <si>
+    <t>https://dblp.org/rec/journals/corr/abs-1810-04805.html</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1907.11692</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +294,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,19 +351,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,36 +650,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="168.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="123.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="168.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="125.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -523,139 +690,1512 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{A4854FBC-6F66-429D-80F8-5017C154B28C}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{5A80CFEA-29F4-47F2-87B1-8620AB1B4A07}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE06B380-7E30-48E5-80AE-0234B5EE8E19}">
+  <dimension ref="A1:AJ14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" customWidth="1"/>
+    <col min="35" max="36" width="125.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>102</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>102</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
         <v>100</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>104</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4">
-        <v>104</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AI10" r:id="rId1" xr:uid="{7119C18D-4833-4321-B18E-68DD0F141985}"/>
+    <hyperlink ref="AI13" r:id="rId2" display="https://osf.io/74b8k" xr:uid="{8B204383-69DF-4A86-8137-A2036F634872}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>